--- a/biology/Zoologie/Catalaphyllia/Catalaphyllia.xlsx
+++ b/biology/Zoologie/Catalaphyllia/Catalaphyllia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catalaphyllia est un genre de corail dur des océans indien et pacifique, de la famille des Euphylliidae.
 </t>
@@ -511,11 +523,13 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (26 février 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (26 février 2015) :
 Catalaphyllia jardinei (Saville-Kent, 1893)
-Catalaphyllia plicata (Milne-Edwards &amp; Haime, 1857) — synonyme du précédent selon World Register of Marine Species                               (26 février 2015)[2]</t>
+Catalaphyllia plicata (Milne-Edwards &amp; Haime, 1857) — synonyme du précédent selon World Register of Marine Species                               (26 février 2015)</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Wells : Notes on Indo-Pacific scleractinian corals. Part 7. Catalaphyllia, a new genus of reef corals. Pacific Science 25 p. 368–371. Texte original</t>
         </is>
